--- a/biology/Botanique/Sampion/Sampion.xlsx
+++ b/biology/Botanique/Sampion/Sampion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sampion ou Shampion est le nom d'un cultivar de pommier domestique
 Nom botanique: Malus Pumila Sampion.
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">1970, Střižovice, en République Tchèque.
 </t>
@@ -543,9 +557,11 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cultivar issu du croisement Golden Delicious x Cox's Orange Pippin[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cultivar issu du croisement Golden Delicious x Cox's Orange Pippin
 Descendants : Rajka, très résistante à la tavelure</t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Groupe de floraison: B[2]
-S-génotype:  S3S5[3].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Groupe de floraison: B
+S-génotype:  S3S5.</t>
         </is>
       </c>
     </row>
@@ -605,9 +623,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Maladies : peu susceptible à la tavelure[4].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Maladies : peu susceptible à la tavelure.</t>
         </is>
       </c>
     </row>
